--- a/comments.xlsx
+++ b/comments.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Some projects\Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C38EEEB-6BEA-4426-86C4-AE5965740736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E55FB22-AEDB-434E-B4F1-3BA5085320DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8166,13 +8166,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1471"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A966" workbookViewId="0">
-      <selection activeCell="G976" sqref="G976"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="27.59765625" customWidth="1"/>
+    <col min="4" max="4" width="38.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
